--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T19:58:19+00:00</t>
+    <t>2022-09-03T20:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-vaccine-series.xlsx
+++ b/StructureDefinition-covid19-vaccine-series.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
